--- a/接口测试用例模板.xlsx
+++ b/接口测试用例模板.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2500B6B-CB6D-4268-9485-F42B7DF62B7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215F4DCC-8F60-466A-AA43-586AB99D7DDD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>接口类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>127.0.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -374,6 +370,34 @@
   </si>
   <si>
     <t>瞎测试一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM `b_admin` WHERE ID=RESPONSE[code]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_account=hubeicaohuiya&amp;id=RESPONSE[code]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_name=湖北省曹慧亚&amp;operator=admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -872,7 +896,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -880,7 +904,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -900,10 +924,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -914,10 +938,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -925,13 +949,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -939,13 +963,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -953,13 +977,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -976,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2B88EA-A9E7-4FFA-8CDF-D9C55D989F7F}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -992,7 +1016,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="13"/>
@@ -1006,22 +1030,22 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1029,20 +1053,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1">
         <v>300</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1050,20 +1074,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>300</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1071,20 +1095,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1">
         <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1092,20 +1116,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1113,20 +1137,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="6">
         <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1134,19 +1158,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="6">
         <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1154,19 +1178,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="6">
         <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1181,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1E5343-9D00-4E37-861A-930F8E5465B3}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1196,20 +1220,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1217,10 +1241,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1228,7 +1252,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1236,18 +1260,40 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1261,31 +1307,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB06553-B052-4E93-8DC0-D9D49E216128}">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1293,868 +1341,993 @@
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11">
-        <v>3306</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="11">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="11">
+        <v>63306</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C53" s="9"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C54" s="9"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C55" s="9"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="10"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C56" s="9"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="10"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C57" s="9"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="10"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="9"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="10"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C59" s="9"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="10"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C60" s="9"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="9"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="10"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C61" s="9"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="9"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="10"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C62" s="9"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="9"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="10"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C63" s="9"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="10"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C64" s="9"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="9"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="10"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C65" s="9"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="10"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C66" s="9"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="9"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="10"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C67" s="9"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="9"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="10"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C68" s="9"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="9"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="10"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C69" s="9"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="9"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="10"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C70" s="9"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="9"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="10"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C71" s="9"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="10"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C72" s="9"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="9"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="10"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C73" s="9"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="9"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="10"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C74" s="9"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="9"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="10"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C75" s="9"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="9"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="10"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C76" s="9"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="9"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="10"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C77" s="9"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="9"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="10"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C78" s="9"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="9"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="10"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C79" s="9"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="9"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="10"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C80" s="9"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="9"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="10"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C81" s="9"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="10"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C82" s="9"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="9"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="10"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C83" s="9"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="9"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="10"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C84" s="9"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="9"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="10"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C85" s="9"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="10"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="9"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="10"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C86" s="9"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="9"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="10"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C87" s="9"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="9"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="10"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C88" s="9"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="9"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="10"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C89" s="9"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="9"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="10"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C90" s="9"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="9"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="10"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C91" s="9"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="9"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="10"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C92" s="9"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="9"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="10"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C93" s="9"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="9"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="10"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C94" s="9"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="9"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="10"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C95" s="9"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="10"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="9"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="10"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C96" s="9"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="9"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="10"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C97" s="9"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="10"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="9"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="10"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C98" s="9"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="9"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="10"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C99" s="9"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="9"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="10"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C100" s="9"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="10"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="9"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="10"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C101" s="9"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="10"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="9"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="10"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C102" s="9"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="9"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="10"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C103" s="9"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="10"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="9"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="10"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C104" s="9"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="10"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="9"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="10"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C105" s="9"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="10"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="9"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="10"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C106" s="9"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="10"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="9"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="10"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C107" s="9"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="10"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="9"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="10"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C108" s="9"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="10"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="9"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="10"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C109" s="9"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="10"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="9"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="10"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C110" s="9"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="10"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="9"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="10"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C111" s="9"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="10"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="9"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="10"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C112" s="9"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="10"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="9"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="10"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C113" s="9"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="9"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="10"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C114" s="9"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="10"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="9"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="10"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C115" s="9"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="10"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="9"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="10"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C116" s="9"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="10"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="9"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="10"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C117" s="9"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="10"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="9"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="10"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C118" s="9"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="10"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="9"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="10"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C119" s="9"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="10"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="9"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="10"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C120" s="9"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="10"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="9"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="10"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C121" s="9"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="10"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="9"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="10"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/接口测试用例模板.xlsx
+++ b/接口测试用例模板.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215F4DCC-8F60-466A-AA43-586AB99D7DDD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564E0B43-8A98-449F-B267-DE3B26DBC819}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>接口类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
   </si>
   <si>
     <t>mysqlPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -114,14 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>message=设备初始录入失败:激活码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关联用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,15 +130,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>message=设备初始录入失败:设备已授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CC:4B:73:57:8D:E2&amp;1.2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>downloadUrl=http://127.0.0.1/a/1.2.0.apk&amp;isVersionUp=true&amp;upVersion=1.2.3&amp;versionInfo=强制更新&amp;versionUpMode=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -208,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>comicTitle=标题&amp;updateTime=20181101&amp;id=123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select * from t_comic_info where id= 123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +231,6 @@
   </si>
   <si>
     <t>CC:4B:73:57:8D:E2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>titleImgURL=http://域名+存放路径+图片名称.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -353,10 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>msg=登陆成功&amp;orderNumber=&amp;userPhone=15508976543</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://192.168.10.191:9000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,6 +366,34 @@
   </si>
   <si>
     <t>admin_name=湖北省曹慧亚&amp;operator=admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150.138.148.222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=300&amp;message=设备初始录入失败:激活码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=300&amp;message=设备初始录入失败:设备已授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=200&amp;downloadUrl=http://127.0.0.1/a/1.2.0.apk&amp;isVersionUp=true&amp;upVersion=1.2.3&amp;versionInfo=强制更新&amp;versionUpMode=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=0&amp;comicTitle=标题&amp;updateTime=20181101&amp;id=123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=200&amp;titleImgURL=http://域名+存放路径+图片名称.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=200&amp;msg=登陆成功&amp;orderNumber=&amp;userPhone=15508976543</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -896,7 +892,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -904,7 +900,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -924,10 +920,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -938,10 +934,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -949,13 +945,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,13 +959,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -977,13 +973,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -998,10 +994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2B88EA-A9E7-4FFA-8CDF-D9C55D989F7F}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1010,192 +1006,166 @@
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
     <col min="5" max="5" width="38.5" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="37.125" customWidth="1"/>
+    <col min="6" max="6" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1">
-        <v>300</v>
-      </c>
-      <c r="G3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1">
-        <v>300</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1">
-        <v>200</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="6">
-        <v>200</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="6">
-        <v>200</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="6">
-        <v>200</v>
-      </c>
-      <c r="G9" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1220,20 +1190,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1241,10 +1211,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1252,7 +1222,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1260,18 +1230,18 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1279,10 +1249,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1290,10 +1260,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB06553-B052-4E93-8DC0-D9D49E216128}">
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1325,7 +1295,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1341,7 +1311,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>8</v>
@@ -1355,22 +1325,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D3" s="11">
         <v>63306</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">

--- a/接口测试用例模板.xlsx
+++ b/接口测试用例模板.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564E0B43-8A98-449F-B267-DE3B26DBC819}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C1368C-A907-431B-8E01-180751061CB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>接口类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,10 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.10.191:9000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>qgo216&amp;002&amp;CC%3A4B%3A73%3A57%3A8D%3AE2&amp;006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,6 +390,29 @@
   </si>
   <si>
     <t>code=200&amp;msg=登陆成功&amp;orderNumber=&amp;userPhone=15508976543</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.104.105.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/nlps/comic/list</t>
+  </si>
+  <si>
+    <t>type&amp;areaCode&amp;version&amp;page&amp;pageSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问答接口列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;110108&amp;1.4.0&amp;1&amp;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg=操作成功&amp;code=0&amp;comicTitle=见义勇为</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -980,6 +999,20 @@
       </c>
       <c r="D7" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -994,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2B88EA-A9E7-4FFA-8CDF-D9C55D989F7F}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1054,7 +1087,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1072,7 +1105,7 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1090,7 +1123,7 @@
         <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1108,7 +1141,7 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1126,7 +1159,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1143,7 +1176,7 @@
         <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1151,16 +1184,33 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" t="s">
-        <v>55</v>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1249,10 +1299,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1260,10 +1310,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
         <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1280,7 +1330,7 @@
   <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1311,7 +1361,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>8</v>
@@ -1325,22 +1375,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="11">
         <v>63306</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
